--- a/DataFormat/DataFormat.xlsx
+++ b/DataFormat/DataFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\OurEDA-B2S\DataFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB404AC-D19F-4A7D-822F-02ECF0D33324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B9BE2-7659-4E69-BB90-68B61841C33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电源仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未漏水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +309,10 @@
   </si>
   <si>
     <t>状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,18 +511,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -549,12 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,214 +838,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="10" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="10" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="10" t="s">
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="12" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12" t="s">
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="12"/>
+      <c r="AN1" s="11"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU2" s="12"/>
+      <c r="AU2" s="11"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="10"/>
+      <c r="S3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="10" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="10" t="s">
+      <c r="V3" s="10"/>
+      <c r="W3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="10" t="s">
+      <c r="X3" s="10"/>
+      <c r="Y3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="10" t="s">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="11"/>
+      <c r="AB3" s="10"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -1058,16 +1058,16 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="10" t="s">
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AR3" s="11"/>
+      <c r="AR3" s="10"/>
       <c r="AS3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT3" s="2" t="s">
         <v>27</v>
@@ -1224,16 +1224,16 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="O6" t="s">
         <v>55</v>
       </c>
@@ -1250,14 +1250,14 @@
       <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1266,40 +1266,40 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -1308,46 +1308,46 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1355,23 +1355,23 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1394,26 +1394,26 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="4" t="s">
         <v>37</v>
       </c>
@@ -1428,26 +1428,26 @@
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="4">
         <v>44</v>
       </c>
@@ -1457,6 +1457,7 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
@@ -1467,11 +1468,10 @@
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E6:L14"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="AQ2:AR2"/>
@@ -1488,25 +1488,25 @@
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="L23:N23"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E6:L14"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
